--- a/idis/expdata/90002.xlsx
+++ b/idis/expdata/90002.xlsx
@@ -1416,7 +1416,7 @@
         <v>166</v>
       </c>
       <c r="M2">
-        <v>2.222907428098874e-06</v>
+        <v>2.132263674973965e-06</v>
       </c>
       <c r="N2">
         <v>7.862200813477277e-07</v>
@@ -1913,7 +1913,7 @@
         <v>166</v>
       </c>
       <c r="M3">
-        <v>1.221009229208465e-06</v>
+        <v>1.178318563199365e-06</v>
       </c>
       <c r="N3">
         <v>7.983182511619923e-07</v>
@@ -2410,7 +2410,7 @@
         <v>166</v>
       </c>
       <c r="M4">
-        <v>1.780537059473756e-06</v>
+        <v>1.698855543520676e-06</v>
       </c>
       <c r="N4">
         <v>1.878720938693041e-06</v>
@@ -2907,7 +2907,7 @@
         <v>166</v>
       </c>
       <c r="M5">
-        <v>6.876722051589125e-07</v>
+        <v>6.666075876053753e-07</v>
       </c>
       <c r="N5">
         <v>8.091440860831399e-07</v>
@@ -3404,7 +3404,7 @@
         <v>166</v>
       </c>
       <c r="M6">
-        <v>9.644648415525879e-07</v>
+        <v>9.271536618657844e-07</v>
       </c>
       <c r="N6">
         <v>1.913336443648262e-06</v>
@@ -3901,7 +3901,7 @@
         <v>166</v>
       </c>
       <c r="M7">
-        <v>3.918257482374637e-07</v>
+        <v>3.818884025189417e-07</v>
       </c>
       <c r="N7">
         <v>8.195074226645846e-07</v>
@@ -4398,7 +4398,7 @@
         <v>166</v>
       </c>
       <c r="M8">
-        <v>5.433067810192363e-07</v>
+        <v>5.254639926355749e-07</v>
       </c>
       <c r="N8">
         <v>1.946661231353148e-06</v>
@@ -4895,7 +4895,7 @@
         <v>166</v>
       </c>
       <c r="M9">
-        <v>8.320236140593034e-07</v>
+        <v>7.888345634836901e-07</v>
       </c>
       <c r="N9">
         <v>4.659630501142467e-06</v>
@@ -5392,7 +5392,7 @@
         <v>166</v>
       </c>
       <c r="M10">
-        <v>2.252110215439815e-07</v>
+        <v>2.204231252559877e-07</v>
       </c>
       <c r="N10">
         <v>8.308234276855793e-07</v>
@@ -5889,7 +5889,7 @@
         <v>166</v>
       </c>
       <c r="M11">
-        <v>3.129276823407711e-07</v>
+        <v>3.04130629206463e-07</v>
       </c>
       <c r="N11">
         <v>1.981750756333539e-06</v>
@@ -6386,7 +6386,7 @@
         <v>166</v>
       </c>
       <c r="M12">
-        <v>4.654591391329258e-07</v>
+        <v>4.451356367939833e-07</v>
       </c>
       <c r="N12">
         <v>4.769344953346965e-06</v>
@@ -6883,7 +6883,7 @@
         <v>166</v>
       </c>
       <c r="M13">
-        <v>7.629193870658122e-07</v>
+        <v>6.998791291640541e-07</v>
       </c>
       <c r="N13">
         <v>1.178817662706693e-05</v>
@@ -7380,7 +7380,7 @@
         <v>166</v>
       </c>
       <c r="M14">
-        <v>1.309308734025588e-07</v>
+        <v>1.279392920477365e-07</v>
       </c>
       <c r="N14">
         <v>8.452766854675977e-07</v>
@@ -7877,7 +7877,7 @@
         <v>166</v>
       </c>
       <c r="M15">
-        <v>1.824537589159455e-07</v>
+        <v>1.780845576635919e-07</v>
       </c>
       <c r="N15">
         <v>2.023652419231063e-06</v>
@@ -8374,7 +8374,7 @@
         <v>166</v>
       </c>
       <c r="M16">
-        <v>2.688056347571889e-07</v>
+        <v>2.587196632498709e-07</v>
       </c>
       <c r="N16">
         <v>4.887887577293852e-06</v>
@@ -8871,7 +8871,7 @@
         <v>166</v>
       </c>
       <c r="M17">
-        <v>4.214597699508454e-07</v>
+        <v>3.914742948175537e-07</v>
       </c>
       <c r="N17">
         <v>1.211447470889183e-05</v>
@@ -9368,7 +9368,7 @@
         <v>166</v>
       </c>
       <c r="M18">
-        <v>7.588833328427006e-08</v>
+        <v>7.452459026517316e-08</v>
       </c>
       <c r="N18">
         <v>8.66643424182065e-07</v>
@@ -9865,7 +9865,7 @@
         <v>166</v>
       </c>
       <c r="M19">
-        <v>1.071376298678583e-07</v>
+        <v>1.048532789815414e-07</v>
       </c>
       <c r="N19">
         <v>2.078633415305682e-06</v>
@@ -10362,7 +10362,7 @@
         <v>166</v>
       </c>
       <c r="M20">
-        <v>1.579135556909774e-07</v>
+        <v>1.527460435376798e-07</v>
       </c>
       <c r="N20">
         <v>5.031964717725311e-06</v>
@@ -10859,7 +10859,7 @@
         <v>166</v>
       </c>
       <c r="M21">
-        <v>2.429013387206371e-07</v>
+        <v>2.278522756594641e-07</v>
       </c>
       <c r="N21">
         <v>1.239079008777729e-05</v>
@@ -11356,7 +11356,7 @@
         <v>166</v>
       </c>
       <c r="M22">
-        <v>4.020380695977758e-07</v>
+        <v>3.467904639113061e-07</v>
       </c>
       <c r="N22">
         <v>2.931086234319238e-05</v>
@@ -11853,7 +11853,7 @@
         <v>166</v>
       </c>
       <c r="M23">
-        <v>4.388397146459799e-08</v>
+        <v>4.319741272516846e-08</v>
       </c>
       <c r="N23">
         <v>8.945212028277548e-07</v>
@@ -12350,7 +12350,7 @@
         <v>166</v>
       </c>
       <c r="M24">
-        <v>6.276607411142982e-08</v>
+        <v>6.162552891762317e-08</v>
       </c>
       <c r="N24">
         <v>2.14415274707818e-06</v>
@@ -12847,7 +12847,7 @@
         <v>166</v>
       </c>
       <c r="M25">
-        <v>9.33287170961941e-08</v>
+        <v>9.071503594701809e-08</v>
       </c>
       <c r="N25">
         <v>5.197970958625171e-06</v>
@@ -13344,7 +13344,7 @@
         <v>166</v>
       </c>
       <c r="M26">
-        <v>1.432498702893931e-07</v>
+        <v>1.35561484424964e-07</v>
       </c>
       <c r="N26">
         <v>1.267559988525375e-05</v>
@@ -13841,7 +13841,7 @@
         <v>166</v>
       </c>
       <c r="M27">
-        <v>2.299249902077801e-07</v>
+        <v>2.025848181471989e-07</v>
       </c>
       <c r="N27">
         <v>3.026040006920109e-05</v>
@@ -14338,7 +14338,7 @@
         <v>166</v>
       </c>
       <c r="M28">
-        <v>2.484145023419081e-08</v>
+        <v>2.453587948096747e-08</v>
       </c>
       <c r="N28">
         <v>9.071897141592338e-07</v>
@@ -14835,7 +14835,7 @@
         <v>166</v>
       </c>
       <c r="M29">
-        <v>3.640685950136107e-08</v>
+        <v>3.585957692444301e-08</v>
       </c>
       <c r="N29">
         <v>2.176807276453488e-06</v>
@@ -15332,7 +15332,7 @@
         <v>166</v>
       </c>
       <c r="M30">
-        <v>5.510759963501424e-08</v>
+        <v>5.380687416965965e-08</v>
       </c>
       <c r="N30">
         <v>5.287688555873954e-06</v>
@@ -15829,7 +15829,7 @@
         <v>166</v>
       </c>
       <c r="M31">
-        <v>8.534613583922721e-08</v>
+        <v>8.144637046972829e-08</v>
       </c>
       <c r="N31">
         <v>1.281949440300441e-05</v>
@@ -16326,7 +16326,7 @@
         <v>166</v>
       </c>
       <c r="M32">
-        <v>1.356320757436211e-07</v>
+        <v>1.218746474929695e-07</v>
       </c>
       <c r="N32">
         <v>3.073874980444115e-05</v>
@@ -16823,7 +16823,7 @@
         <v>166</v>
       </c>
       <c r="M33">
-        <v>2.279303233647136e-07</v>
+        <v>1.705767821130097e-07</v>
       </c>
       <c r="N33">
         <v>6.604044314718104e-05</v>
@@ -17320,7 +17320,7 @@
         <v>166</v>
       </c>
       <c r="M34">
-        <v>1.384634932449879e-08</v>
+        <v>1.36875603605717e-08</v>
       </c>
       <c r="N34">
         <v>8.630005266140898e-07</v>
@@ -17817,7 +17817,7 @@
         <v>166</v>
       </c>
       <c r="M35">
-        <v>2.099245616615023e-08</v>
+        <v>2.072861318496179e-08</v>
       </c>
       <c r="N35">
         <v>2.093272015984563e-06</v>
@@ -18314,7 +18314,7 @@
         <v>166</v>
       </c>
       <c r="M36">
-        <v>3.253633852377497e-08</v>
+        <v>3.189660602628545e-08</v>
       </c>
       <c r="N36">
         <v>5.120179137590247e-06</v>
@@ -18811,7 +18811,7 @@
         <v>166</v>
       </c>
       <c r="M37">
-        <v>5.112179317608953e-08</v>
+        <v>4.917695777494479e-08</v>
       </c>
       <c r="N37">
         <v>1.245692996314702e-05</v>
@@ -19308,7 +19308,7 @@
         <v>166</v>
       </c>
       <c r="M38">
-        <v>8.149885311699267e-08</v>
+        <v>7.451814826463549e-08</v>
       </c>
       <c r="N38">
         <v>3.002348590773559e-05</v>
@@ -19805,7 +19805,7 @@
         <v>166</v>
       </c>
       <c r="M39">
-        <v>1.341953351068603e-07</v>
+        <v>1.059123042455127e-07</v>
       </c>
       <c r="N39">
         <v>6.655726351155731e-05</v>
@@ -20302,7 +20302,7 @@
         <v>166</v>
       </c>
       <c r="M40">
-        <v>2.374030158164967e-07</v>
+        <v>1.088725041262135e-07</v>
       </c>
       <c r="N40">
         <v>0.0001036309125882099</v>
@@ -20799,7 +20799,7 @@
         <v>166</v>
       </c>
       <c r="M41">
-        <v>1.234273650023001e-08</v>
+        <v>1.218991173243264e-08</v>
       </c>
       <c r="N41">
         <v>1.931146672803765e-06</v>
@@ -21296,7 +21296,7 @@
         <v>166</v>
       </c>
       <c r="M42">
-        <v>1.956511595928611e-08</v>
+        <v>1.920610868523403e-08</v>
       </c>
       <c r="N42">
         <v>4.78779153125747e-06</v>
@@ -21793,7 +21793,7 @@
         <v>166</v>
       </c>
       <c r="M43">
-        <v>3.124370749703729e-08</v>
+        <v>3.018211653724228e-08</v>
       </c>
       <c r="N43">
         <v>1.177006285791151e-05</v>
@@ -22290,7 +22290,7 @@
         <v>166</v>
       </c>
       <c r="M44">
-        <v>5.025495337823697e-08</v>
+        <v>4.656332339716323e-08</v>
       </c>
       <c r="N44">
         <v>2.863074645662561e-05</v>
@@ -22787,7 +22787,7 @@
         <v>166</v>
       </c>
       <c r="M45">
-        <v>8.226858402278608e-08</v>
+        <v>6.789154029296081e-08</v>
       </c>
       <c r="N45">
         <v>6.536257280600544e-05</v>
@@ -23284,7 +23284,7 @@
         <v>166</v>
       </c>
       <c r="M46">
-        <v>1.406755667641769e-07</v>
+        <v>7.92268779628848e-08</v>
       </c>
       <c r="N46">
         <v>0.0001183439571952271</v>
@@ -23781,7 +23781,7 @@
         <v>166</v>
       </c>
       <c r="M47">
-        <v>1.263520242564936e-08</v>
+        <v>1.233287493046182e-08</v>
       </c>
       <c r="N47">
         <v>4.649890755938494e-06</v>
@@ -24278,7 +24278,7 @@
         <v>166</v>
       </c>
       <c r="M48">
-        <v>2.058673304426005e-08</v>
+        <v>1.985078062169018e-08</v>
       </c>
       <c r="N48">
         <v>1.154178858682599e-05</v>
@@ -24775,7 +24775,7 @@
         <v>166</v>
       </c>
       <c r="M49">
-        <v>3.36455421738087e-08</v>
+        <v>3.14508063544008e-08</v>
       </c>
       <c r="N49">
         <v>2.835066726760822e-05</v>
@@ -25272,7 +25272,7 @@
         <v>166</v>
       </c>
       <c r="M50">
-        <v>5.542111743299254e-08</v>
+        <v>4.773436873296819e-08</v>
       </c>
       <c r="N50">
         <v>6.669482744477353e-05</v>
@@ -25769,7 +25769,7 @@
         <v>166</v>
       </c>
       <c r="M51">
-        <v>9.354634246393571e-08</v>
+        <v>6.310054036936205e-08</v>
       </c>
       <c r="N51">
         <v>0.0001367125701161997</v>
@@ -26266,7 +26266,7 @@
         <v>166</v>
       </c>
       <c r="M52">
-        <v>1.704639226275299e-07</v>
+        <v>3.68523581746193e-08</v>
       </c>
       <c r="N52">
         <v>0.0001265026800000414</v>
@@ -26763,7 +26763,7 @@
         <v>166</v>
       </c>
       <c r="M53">
-        <v>1.776998096378525e-08</v>
+        <v>1.707740371048389e-08</v>
       </c>
       <c r="N53">
         <v>1.165946884424528e-05</v>
@@ -27260,7 +27260,7 @@
         <v>166</v>
       </c>
       <c r="M54">
-        <v>2.988509335695204e-08</v>
+        <v>2.821013737421433e-08</v>
       </c>
       <c r="N54">
         <v>2.889117902919049e-05</v>
@@ -27757,7 +27757,7 @@
         <v>166</v>
       </c>
       <c r="M55">
-        <v>5.020761793665195e-08</v>
+        <v>4.513386026104909e-08</v>
       </c>
       <c r="N55">
         <v>6.978968017634163e-05</v>
@@ -28254,7 +28254,7 @@
         <v>166</v>
       </c>
       <c r="M56">
-        <v>8.517931295717337e-08</v>
+        <v>6.669273818603006e-08</v>
       </c>
       <c r="N56">
         <v>0.0001566252188534631</v>
@@ -28751,7 +28751,7 @@
         <v>166</v>
       </c>
       <c r="M57">
-        <v>1.514094156297705e-07</v>
+        <v>7.346751658447685e-08</v>
       </c>
       <c r="N57">
         <v>0.0002663414615044516</v>
@@ -29248,7 +29248,7 @@
         <v>166</v>
       </c>
       <c r="M58">
-        <v>3.282724275021065e-07</v>
+        <v>-3.698515762411594e-08</v>
       </c>
       <c r="N58">
         <v>-0.0002346966577278006</v>

--- a/idis/expdata/90002.xlsx
+++ b/idis/expdata/90002.xlsx
@@ -1044,7 +1044,7 @@
         <v>104</v>
       </c>
       <c r="M2">
-        <v>2.187647415131169e-06</v>
+        <v>1.883727855144042e-05</v>
       </c>
       <c r="N2">
         <v>2.068033213012387e-06</v>
@@ -1355,7 +1355,7 @@
         <v>104</v>
       </c>
       <c r="M3">
-        <v>1.199262511022001e-06</v>
+        <v>1.845120899017984e-05</v>
       </c>
       <c r="N3">
         <v>2.076006637459165e-06</v>
@@ -1666,7 +1666,7 @@
         <v>104</v>
       </c>
       <c r="M4">
-        <v>1.765179415366116e-06</v>
+        <v>2.71581025828268e-05</v>
       </c>
       <c r="N4">
         <v>5.092335612540894e-06</v>
@@ -1977,7 +1977,7 @@
         <v>104</v>
       </c>
       <c r="M5">
-        <v>6.749776351191595e-07</v>
+        <v>1.855537108950197e-05</v>
       </c>
       <c r="N5">
         <v>2.084634051893899e-06</v>
@@ -2288,7 +2288,7 @@
         <v>104</v>
       </c>
       <c r="M6">
-        <v>9.524257511331208e-07</v>
+        <v>2.61825167649377e-05</v>
       </c>
       <c r="N6">
         <v>5.110117751294819e-06</v>
@@ -2599,7 +2599,7 @@
         <v>104</v>
       </c>
       <c r="M7">
-        <v>3.853763869896842e-07</v>
+        <v>1.892930667502078e-05</v>
       </c>
       <c r="N7">
         <v>2.0937446564993e-06</v>
@@ -2910,7 +2910,7 @@
         <v>104</v>
       </c>
       <c r="M8">
-        <v>5.35982386952749e-07</v>
+        <v>2.632692432010379e-05</v>
       </c>
       <c r="N8">
         <v>5.134537606374507e-06</v>
@@ -3221,7 +3221,7 @@
         <v>104</v>
       </c>
       <c r="M9">
-        <v>8.263231907204969e-07</v>
+        <v>4.058817721553481e-05</v>
       </c>
       <c r="N9">
         <v>1.273067204326441e-05</v>
@@ -3532,7 +3532,7 @@
         <v>104</v>
       </c>
       <c r="M10">
-        <v>2.219309602154454e-07</v>
+        <v>1.947766835548286e-05</v>
       </c>
       <c r="N10">
         <v>2.104158735952907e-06</v>
@@ -3843,7 +3843,7 @@
         <v>104</v>
       </c>
       <c r="M11">
-        <v>3.088030186050246e-07</v>
+        <v>2.710195448946063e-05</v>
       </c>
       <c r="N11">
         <v>5.164574879228162e-06</v>
@@ -4154,7 +4154,7 @@
         <v>104</v>
       </c>
       <c r="M12">
-        <v>4.61083618175036e-07</v>
+        <v>4.046679106980193e-05</v>
       </c>
       <c r="N12">
         <v>1.279929813781544e-05</v>
@@ -4465,7 +4465,7 @@
         <v>104</v>
       </c>
       <c r="M13">
-        <v>7.626452790991262e-07</v>
+        <v>6.693321114253902e-05</v>
       </c>
       <c r="N13">
         <v>3.244543871427877e-05</v>
@@ -4776,7 +4776,7 @@
         <v>104</v>
       </c>
       <c r="M14">
-        <v>1.286146007953525e-07</v>
+        <v>2.016873740615184e-05</v>
       </c>
       <c r="N14">
         <v>2.117565108858939e-06</v>
@@ -5087,7 +5087,7 @@
         <v>104</v>
       </c>
       <c r="M15">
-        <v>1.802673194684794e-07</v>
+        <v>2.826867406022833e-05</v>
       </c>
       <c r="N15">
         <v>5.202724759746587e-06</v>
@@ -5398,7 +5398,7 @@
         <v>104</v>
       </c>
       <c r="M16">
-        <v>2.660940651785443e-07</v>
+        <v>4.17276210689337e-05</v>
       </c>
       <c r="N16">
         <v>1.289290911922895e-05</v>
@@ -5709,7 +5709,7 @@
         <v>104</v>
       </c>
       <c r="M17">
-        <v>4.187257288930851e-07</v>
+        <v>6.566260143885688e-05</v>
       </c>
       <c r="N17">
         <v>3.257704440954888e-05</v>
@@ -6020,7 +6020,7 @@
         <v>104</v>
       </c>
       <c r="M18">
-        <v>7.483797315432466e-08</v>
+        <v>2.096910837045354e-05</v>
       </c>
       <c r="N18">
         <v>2.137045553905758e-06</v>
@@ -6331,7 +6331,7 @@
         <v>104</v>
       </c>
       <c r="M19">
-        <v>1.059068489160146e-07</v>
+        <v>2.967440322727583e-05</v>
       </c>
       <c r="N19">
         <v>5.252893404156144e-06</v>
@@ -6642,7 +6642,7 @@
         <v>104</v>
       </c>
       <c r="M20">
-        <v>1.563340353507803e-07</v>
+        <v>4.380376954492683e-05</v>
       </c>
       <c r="N20">
         <v>1.301677187657089e-05</v>
@@ -6953,7 +6953,7 @@
         <v>104</v>
       </c>
       <c r="M21">
-        <v>2.409176022122425e-07</v>
+        <v>6.750352924071475e-05</v>
       </c>
       <c r="N21">
         <v>3.272949024287009e-05</v>
@@ -7264,7 +7264,7 @@
         <v>104</v>
       </c>
       <c r="M22">
-        <v>4.012259892674524e-07</v>
+        <v>0.0001124208860205683</v>
       </c>
       <c r="N22">
         <v>8.286241470667328e-05</v>
@@ -7575,7 +7575,7 @@
         <v>104</v>
       </c>
       <c r="M23">
-        <v>4.334835523650985e-08</v>
+        <v>2.170204245968058e-05</v>
       </c>
       <c r="N23">
         <v>2.160950935563228e-06</v>
@@ -7886,7 +7886,7 @@
         <v>104</v>
       </c>
       <c r="M24">
-        <v>6.213437101505988e-08</v>
+        <v>3.11071262246831e-05</v>
       </c>
       <c r="N24">
         <v>5.309821313046458e-06</v>
@@ -8197,7 +8197,7 @@
         <v>104</v>
       </c>
       <c r="M25">
-        <v>9.248101901467546e-08</v>
+        <v>4.629995741293455e-05</v>
       </c>
       <c r="N25">
         <v>1.315770333881011e-05</v>
@@ -8508,7 +8508,7 @@
         <v>104</v>
       </c>
       <c r="M26">
-        <v>1.421127506547982e-07</v>
+        <v>7.114772710395711e-05</v>
       </c>
       <c r="N26">
         <v>3.290711620593283e-05</v>
@@ -8819,7 +8819,7 @@
         <v>104</v>
       </c>
       <c r="M27">
-        <v>2.286474420594847e-07</v>
+        <v>0.0001144706983413579</v>
       </c>
       <c r="N27">
         <v>8.310752453423652e-05</v>
@@ -9130,7 +9130,7 @@
         <v>104</v>
       </c>
       <c r="M28">
-        <v>2.460934828160164e-08</v>
+        <v>2.20139507125506e-05</v>
       </c>
       <c r="N28">
         <v>2.166696250790367e-06</v>
@@ -9441,7 +9441,7 @@
         <v>104</v>
       </c>
       <c r="M29">
-        <v>3.609663025287897e-08</v>
+        <v>3.228973925612027e-05</v>
       </c>
       <c r="N29">
         <v>5.328730406814314e-06</v>
@@ -9752,7 +9752,7 @@
         <v>104</v>
       </c>
       <c r="M30">
-        <v>5.465762330277188e-08</v>
+        <v>4.889321780014568e-05</v>
       </c>
       <c r="N30">
         <v>1.321190187838799e-05</v>
@@ -10063,7 +10063,7 @@
         <v>104</v>
       </c>
       <c r="M31">
-        <v>8.472075278925897e-08</v>
+        <v>7.57857727433883e-05</v>
       </c>
       <c r="N31">
         <v>3.292401900394422e-05</v>
@@ -10374,7 +10374,7 @@
         <v>104</v>
       </c>
       <c r="M32">
-        <v>1.348137389601172e-07</v>
+        <v>0.000120595757794227</v>
       </c>
       <c r="N32">
         <v>8.291311707588299e-05</v>
@@ -10685,7 +10685,7 @@
         <v>104</v>
       </c>
       <c r="M33">
-        <v>2.268214229049417e-07</v>
+        <v>0.0002028999535965535</v>
       </c>
       <c r="N33">
         <v>0.0002096923857323786</v>
@@ -10996,7 +10996,7 @@
         <v>104</v>
       </c>
       <c r="M34">
-        <v>1.372249186418947e-08</v>
+        <v>2.193312962763225e-05</v>
       </c>
       <c r="N34">
         <v>2.11485255625526e-06</v>
@@ -11307,7 +11307,7 @@
         <v>104</v>
       </c>
       <c r="M35">
-        <v>2.083820305284459e-08</v>
+        <v>3.33064149928666e-05</v>
       </c>
       <c r="N35">
         <v>5.229705209561785e-06</v>
@@ -11618,7 +11618,7 @@
         <v>104</v>
       </c>
       <c r="M36">
-        <v>3.230685375093692e-08</v>
+        <v>5.163715294518104e-05</v>
       </c>
       <c r="N36">
         <v>1.300316745284951e-05</v>
@@ -11929,7 +11929,7 @@
         <v>104</v>
       </c>
       <c r="M37">
-        <v>5.08066163415264e-08</v>
+        <v>8.120595830470101e-05</v>
       </c>
       <c r="N37">
         <v>3.241381740342814e-05</v>
@@ -12240,7 +12240,7 @@
         <v>104</v>
       </c>
       <c r="M38">
-        <v>8.102672415814171e-08</v>
+        <v>0.000129507793617313</v>
       </c>
       <c r="N38">
         <v>8.147166253583733e-05</v>
@@ -12551,7 +12551,7 @@
         <v>104</v>
       </c>
       <c r="M39">
-        <v>1.3328176870259e-07</v>
+        <v>0.0002130288244209015</v>
       </c>
       <c r="N39">
         <v>0.0002055383638588268</v>
@@ -12862,7 +12862,7 @@
         <v>104</v>
       </c>
       <c r="M40">
-        <v>2.333547896630914e-07</v>
+        <v>0.0003729789677824803</v>
       </c>
       <c r="N40">
         <v>0.0005244979830483648</v>
@@ -13173,7 +13173,7 @@
         <v>104</v>
       </c>
       <c r="M41">
-        <v>1.224472512232155e-08</v>
+        <v>3.49692280012204e-05</v>
       </c>
       <c r="N41">
         <v>5.053406677980034e-06</v>
@@ -13484,7 +13484,7 @@
         <v>104</v>
       </c>
       <c r="M42">
-        <v>1.941342159247142e-08</v>
+        <v>5.544202578409891e-05</v>
       </c>
       <c r="N42">
         <v>1.263025332860898e-05</v>
@@ -13795,7 +13795,7 @@
         <v>104</v>
       </c>
       <c r="M43">
-        <v>3.100450690283253e-08</v>
+        <v>8.854454960153922e-05</v>
       </c>
       <c r="N43">
         <v>3.157745327603764e-05</v>
@@ -14106,7 +14106,7 @@
         <v>104</v>
       </c>
       <c r="M44">
-        <v>4.985530594057083e-08</v>
+        <v>0.000142379803800442</v>
       </c>
       <c r="N44">
         <v>7.936027431052602e-05</v>
@@ -14417,7 +14417,7 @@
         <v>104</v>
       </c>
       <c r="M45">
-        <v>8.145471422960587e-08</v>
+        <v>0.0002326233088300976</v>
       </c>
       <c r="N45">
         <v>0.00020000849773086</v>
@@ -14728,7 +14728,7 @@
         <v>104</v>
       </c>
       <c r="M46">
-        <v>1.377806658928478e-07</v>
+        <v>0.0003934823747888016</v>
       </c>
       <c r="N46">
         <v>0.0005082999330470163</v>
@@ -15039,7 +15039,7 @@
         <v>104</v>
       </c>
       <c r="M47">
-        <v>1.243571530452069e-08</v>
+        <v>6.345670656617204e-05</v>
       </c>
       <c r="N47">
         <v>1.246001599779908e-05</v>
@@ -15350,7 +15350,7 @@
         <v>104</v>
       </c>
       <c r="M48">
-        <v>2.02510392686543e-08</v>
+        <v>0.0001033365773550503</v>
       </c>
       <c r="N48">
         <v>3.121964144634335e-05</v>
@@ -15661,7 +15661,7 @@
         <v>104</v>
       </c>
       <c r="M49">
-        <v>3.306233085956781e-08</v>
+        <v>0.0001687097666980659</v>
       </c>
       <c r="N49">
         <v>7.842585876210175e-05</v>
@@ -15972,7 +15972,7 @@
         <v>104</v>
       </c>
       <c r="M50">
-        <v>5.432857327240651e-08</v>
+        <v>0.0002772267013102645</v>
       </c>
       <c r="N50">
         <v>0.0001973918496349182</v>
@@ -16283,7 +16283,7 @@
         <v>104</v>
       </c>
       <c r="M51">
-        <v>9.086561671280791e-08</v>
+        <v>0.0004636671583019223</v>
       </c>
       <c r="N51">
         <v>0.0004996024602075644</v>
@@ -16594,7 +16594,7 @@
         <v>104</v>
       </c>
       <c r="M52">
-        <v>1.565949588675477e-07</v>
+        <v>0.0007990694633373671</v>
       </c>
       <c r="N52">
         <v>0.001285481420999734</v>
@@ -16905,7 +16905,7 @@
         <v>104</v>
       </c>
       <c r="M53">
-        <v>1.729912080447493e-08</v>
+        <v>0.0001577250358782788</v>
       </c>
       <c r="N53">
         <v>3.123421988439345e-05</v>
@@ -17216,7 +17216,7 @@
         <v>104</v>
       </c>
       <c r="M54">
-        <v>2.912377779620523e-08</v>
+        <v>0.0002655365523911031</v>
       </c>
       <c r="N54">
         <v>7.839767424084577e-05</v>
@@ -17527,7 +17527,7 @@
         <v>104</v>
       </c>
       <c r="M55">
-        <v>4.8889225016598e-08</v>
+        <v>0.0004457483624144309</v>
       </c>
       <c r="N55">
         <v>0.0001970275905804408</v>
@@ -17838,7 +17838,7 @@
         <v>104</v>
       </c>
       <c r="M56">
-        <v>8.255842753751427e-08</v>
+        <v>0.0007527279040701434</v>
       </c>
       <c r="N56">
         <v>0.0004968524863143405</v>
@@ -18149,7 +18149,7 @@
         <v>104</v>
       </c>
       <c r="M57">
-        <v>1.415902606325146e-07</v>
+        <v>0.001290951672671198</v>
       </c>
       <c r="N57">
         <v>0.001264963830867325</v>
@@ -18460,7 +18460,7 @@
         <v>104</v>
       </c>
       <c r="M58">
-        <v>2.457186269101156e-07</v>
+        <v>0.002240343869691557</v>
       </c>
       <c r="N58">
         <v>0.003309657009219136</v>
